--- a/inst/app/www/configFiles/DX2058_reference.xlsx
+++ b/inst/app/www/configFiles/DX2058_reference.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\outputs\configFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640D0A77-E5DF-45FB-BD4F-55D07B5D7B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD9CEC4-1F1E-4AB8-9E98-75F97665F230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,31 +31,38 @@
     <t>upper_limit</t>
   </si>
   <si>
-    <t>CER(16：0)</t>
-  </si>
-  <si>
-    <t>CER(18：0)</t>
-  </si>
-  <si>
-    <t>CER(24：0)</t>
-  </si>
-  <si>
-    <t>CER(24：1)</t>
-  </si>
-  <si>
-    <t>CER(16：0)/CER(24：0)</t>
-  </si>
-  <si>
-    <t>CER(18：0)/CER(24：0)</t>
-  </si>
-  <si>
-    <t>CER(24：1)/CER(24：0)</t>
-  </si>
-  <si>
     <t>quanLimit_lower</t>
   </si>
   <si>
     <t>quanLimit_upper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CER(16 :0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CER(18 :0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CER(24 :0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CER(24 :1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CER(16 :0)/CER(24 :0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CER(18 :0)/CER(24 :0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CER(24 :1)/CER(24 :0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,7 +410,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -419,15 +426,15 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>0.28999999999999998</v>
@@ -444,7 +451,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0.11</v>
@@ -461,7 +468,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>2.69E-2</v>
@@ -472,7 +479,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>1.1399999999999999</v>
@@ -489,7 +496,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0.08</v>
@@ -500,7 +507,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>0.03</v>
@@ -511,7 +518,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>0.35</v>
